--- a/Excels/JS角色表.xlsx
+++ b/Excels/JS角色表.xlsx
@@ -53,7 +53,7 @@
     <t>#</t>
   </si>
   <si>
-    <t>#name role</t>
+    <t>#name CfgRole</t>
   </si>
   <si>
     <t>#index unique id</t>
@@ -68,10 +68,10 @@
     <t>name</t>
   </si>
   <si>
-    <t>class_path_lua</t>
+    <t>classPathLua</t>
   </si>
   <si>
-    <t>class_path_cs</t>
+    <t>classPathCs</t>
   </si>
   <si>
     <t>ID</t>
@@ -88,10 +88,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -114,6 +114,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -121,7 +143,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,7 +211,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,14 +219,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,92 +227,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,25 +283,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,25 +445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,127 +457,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,6 +501,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -516,32 +531,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,17 +558,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,151 +594,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" ht="13.5" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>

--- a/Excels/JS角色表.xlsx
+++ b/Excels/JS角色表.xlsx
@@ -19,7 +19,19 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="C4" authorId="0">
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>右手边的没填的话，统一用这一列的内容</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -31,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0">
+    <comment ref="D16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,24 +60,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>#</t>
   </si>
   <si>
-    <t>#name CfgRole</t>
-  </si>
-  <si>
-    <t>#index unique id</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
+    <t>defualt</t>
+  </si>
+  <si>
+    <t>lua</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>isOutput</t>
+  </si>
+  <si>
+    <t>tableName</t>
+  </si>
+  <si>
+    <t>CfgRole</t>
+  </si>
+  <si>
+    <t>outputDir</t>
+  </si>
+  <si>
+    <t>uniqueIndexesList</t>
+  </si>
+  <si>
+    <t>multiplyIndexesList</t>
+  </si>
+  <si>
+    <t>headCommentRowIndex</t>
+  </si>
+  <si>
+    <t>headRowIndex</t>
+  </si>
+  <si>
+    <t>dataStartRowIndex</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>名字</t>
   </si>
   <si>
     <t>classPathLua</t>
@@ -74,10 +116,16 @@
     <t>classPathCs</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>名字</t>
+    <t>id(string)</t>
+  </si>
+  <si>
+    <t>name(string)</t>
+  </si>
+  <si>
+    <t>classPathLua(string)</t>
+  </si>
+  <si>
+    <t>classPathCs(string)</t>
   </si>
   <si>
     <t>小星</t>
@@ -113,15 +161,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,6 +185,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -149,19 +220,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,85 +298,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,13 +319,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399670400097659"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799676503799554"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,25 +349,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,151 +499,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,40 +540,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -535,7 +559,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,30 +581,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -589,6 +589,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -600,10 +648,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,137 +660,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -750,6 +798,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1104,18 +1155,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="7.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="34.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
     <col min="5" max="6" width="16" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="1" customWidth="1"/>
@@ -1124,7 +1175,7 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1134,56 +1185,193 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" ht="13.5" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="13.5" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" ht="13.5" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" ht="13.5" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" ht="13.5" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" ht="13.5" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
